--- a/static/excel/chart.xlsx
+++ b/static/excel/chart.xlsx
@@ -132,7 +132,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Армянский драм</a:t>
+              <a:t>Азербайджанский манат</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -147,7 +147,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>AMD</c:v>
+            <c:v>AZN</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -221,58 +221,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>13.8786</c:v>
+                  <c:v>39.1652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.7951</c:v>
+                  <c:v>38.9498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.8174</c:v>
+                  <c:v>39.0129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0955</c:v>
+                  <c:v>39.7981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0435</c:v>
+                  <c:v>42.4526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.7975</c:v>
+                  <c:v>42.1291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.287</c:v>
+                  <c:v>43.6354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.1112</c:v>
+                  <c:v>42.7926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.1951</c:v>
+                  <c:v>43.3411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.0872</c:v>
+                  <c:v>43.5541</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.7658</c:v>
+                  <c:v>45.5132</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.3153</c:v>
+                  <c:v>47.2485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.853</c:v>
+                  <c:v>46.1173</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.3811</c:v>
+                  <c:v>47.7938</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.9695</c:v>
+                  <c:v>46.593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.7555</c:v>
+                  <c:v>45.9687</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.9196</c:v>
+                  <c:v>46.5179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.7194</c:v>
+                  <c:v>45.933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>13.8688</v>
+        <v>39.0966</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.8786</v>
+        <v>39.1652</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.7951</v>
+        <v>38.9498</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13.8174</v>
+        <v>39.0129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14.0955</v>
+        <v>39.7981</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15.0435</v>
+        <v>42.4526</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14.7975</v>
+        <v>42.1291</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -710,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>15.287</v>
+        <v>43.6354</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15.1112</v>
+        <v>42.7926</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15.1951</v>
+        <v>43.3411</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15.0872</v>
+        <v>43.5541</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -742,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15.7658</v>
+        <v>45.5132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -750,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16.3153</v>
+        <v>47.2485</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -758,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>15.853</v>
+        <v>46.1173</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16.3811</v>
+        <v>47.7938</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -774,7 +774,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15.9695</v>
+        <v>46.593</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>15.7555</v>
+        <v>45.9687</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -790,7 +790,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15.9196</v>
+        <v>46.5179</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -798,7 +798,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15.7194</v>
+        <v>45.933</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/chart.xlsx
+++ b/static/excel/chart.xlsx
@@ -14,49 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>03.03.2020</t>
-  </si>
-  <si>
-    <t>04.03.2020</t>
-  </si>
-  <si>
-    <t>05.03.2020</t>
-  </si>
-  <si>
-    <t>06.03.2020</t>
-  </si>
-  <si>
-    <t>07.03.2020</t>
-  </si>
-  <si>
-    <t>11.03.2020</t>
-  </si>
-  <si>
-    <t>12.03.2020</t>
-  </si>
-  <si>
-    <t>13.03.2020</t>
-  </si>
-  <si>
-    <t>14.03.2020</t>
-  </si>
-  <si>
-    <t>17.03.2020</t>
-  </si>
-  <si>
-    <t>18.03.2020</t>
-  </si>
-  <si>
-    <t>19.03.2020</t>
-  </si>
-  <si>
-    <t>20.03.2020</t>
-  </si>
-  <si>
-    <t>21.03.2020</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>24.03.2020</t>
   </si>
@@ -71,6 +29,45 @@
   </si>
   <si>
     <t>28.03.2020</t>
+  </si>
+  <si>
+    <t>07.04.2020</t>
+  </si>
+  <si>
+    <t>08.04.2020</t>
+  </si>
+  <si>
+    <t>09.04.2020</t>
+  </si>
+  <si>
+    <t>10.04.2020</t>
+  </si>
+  <si>
+    <t>11.04.2020</t>
+  </si>
+  <si>
+    <t>14.04.2020</t>
+  </si>
+  <si>
+    <t>15.04.2020</t>
+  </si>
+  <si>
+    <t>16.04.2020</t>
+  </si>
+  <si>
+    <t>17.04.2020</t>
+  </si>
+  <si>
+    <t>18.04.2020</t>
+  </si>
+  <si>
+    <t>21.04.2020</t>
+  </si>
+  <si>
+    <t>22.04.2020</t>
+  </si>
+  <si>
+    <t>23.04.2020</t>
   </si>
 </sst>
 </file>
@@ -132,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Азербайджанский манат</a:t>
+              <a:t>Австралийский доллар</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -147,132 +144,126 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>AZN</c:v>
+            <c:v>AUD</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!A2:A19</c:f>
+              <c:f>Sheet1!A2:A18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>04.03.2020</c:v>
+                  <c:v>25.03.2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>05.03.2020</c:v>
+                  <c:v>26.03.2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>06.03.2020</c:v>
+                  <c:v>27.03.2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>07.03.2020</c:v>
+                  <c:v>28.03.2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.03.2020</c:v>
+                  <c:v>07.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.03.2020</c:v>
+                  <c:v>08.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.03.2020</c:v>
+                  <c:v>09.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.03.2020</c:v>
+                  <c:v>10.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.03.2020</c:v>
+                  <c:v>11.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.03.2020</c:v>
+                  <c:v>14.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.03.2020</c:v>
+                  <c:v>15.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.03.2020</c:v>
+                  <c:v>16.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.03.2020</c:v>
+                  <c:v>17.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.03.2020</c:v>
+                  <c:v>18.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.03.2020</c:v>
+                  <c:v>21.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.03.2020</c:v>
+                  <c:v>22.04.2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.03.2020</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.03.2020</c:v>
+                  <c:v>23.04.2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!B2:B19</c:f>
+              <c:f>Sheet1!B2:B18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>39.1652</c:v>
+                  <c:v>46.868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.9498</c:v>
+                  <c:v>47.1035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.0129</c:v>
+                  <c:v>46.8398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.7981</c:v>
+                  <c:v>47.1448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.4526</c:v>
+                  <c:v>46.2341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.1291</c:v>
+                  <c:v>46.6312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.6354</c:v>
+                  <c:v>46.4801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.7926</c:v>
+                  <c:v>46.4342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.3411</c:v>
+                  <c:v>46.7806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.5541</c:v>
+                  <c:v>46.6586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.5132</c:v>
+                  <c:v>46.9436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.2485</c:v>
+                  <c:v>46.7719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.1173</c:v>
+                  <c:v>47.0386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.7938</c:v>
+                  <c:v>46.7844</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.593</c:v>
+                  <c:v>47.5695</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.9687</c:v>
+                  <c:v>48.0033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.5179</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45.933</c:v>
+                  <c:v>48.7981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>39.0966</v>
+        <v>46.7091</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -662,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>39.1652</v>
+        <v>46.868</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -670,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>38.9498</v>
+        <v>47.1035</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -678,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>39.0129</v>
+        <v>46.8398</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -686,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>39.7981</v>
+        <v>47.1448</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -694,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>42.4526</v>
+        <v>46.2341</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -702,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>42.1291</v>
+        <v>46.6312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -710,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>43.6354</v>
+        <v>46.4801</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -718,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>42.7926</v>
+        <v>46.4342</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -726,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>43.3411</v>
+        <v>46.7806</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -734,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>43.5541</v>
+        <v>46.6586</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -742,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>45.5132</v>
+        <v>46.9436</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -750,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>47.2485</v>
+        <v>46.7719</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -758,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>46.1173</v>
+        <v>47.0386</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -766,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>47.7938</v>
+        <v>46.7844</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -774,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>46.593</v>
+        <v>47.5695</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -782,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>45.9687</v>
+        <v>48.0033</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -790,15 +781,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>46.5179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>45.933</v>
+        <v>48.7981</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/chart.xlsx
+++ b/static/excel/chart.xlsx
@@ -129,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Австралийский доллар</a:t>
+              <a:t>Фунт стерлингов Соединенного королевства</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -144,7 +144,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>AUD</c:v>
+            <c:v>GBP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -215,55 +215,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>46.868</c:v>
+                  <c:v>91.81999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.1035</c:v>
+                  <c:v>92.2778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.8398</c:v>
+                  <c:v>93.8291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.1448</c:v>
+                  <c:v>94.5771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.2341</c:v>
+                  <c:v>93.94289999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.6312</c:v>
+                  <c:v>93.06619999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.4801</c:v>
+                  <c:v>93.233</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.4342</c:v>
+                  <c:v>92.5177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.7806</c:v>
+                  <c:v>91.9607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.6586</c:v>
+                  <c:v>91.9277</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.9436</c:v>
+                  <c:v>92.1203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.7719</c:v>
+                  <c:v>92.2684</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.0386</c:v>
+                  <c:v>93.3301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.7844</c:v>
+                  <c:v>92.04559999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.5695</c:v>
+                  <c:v>92.8916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.0033</c:v>
+                  <c:v>94.48909999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.7981</c:v>
+                  <c:v>94.8998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>46.7091</v>
+        <v>93.95999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46.868</v>
+        <v>91.81999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.1035</v>
+        <v>92.2778</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>46.8398</v>
+        <v>93.8291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>47.1448</v>
+        <v>94.5771</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46.2341</v>
+        <v>93.94289999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>46.6312</v>
+        <v>93.06619999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>46.4801</v>
+        <v>93.233</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -709,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>46.4342</v>
+        <v>92.5177</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -717,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>46.7806</v>
+        <v>91.9607</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>46.6586</v>
+        <v>91.9277</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>46.9436</v>
+        <v>92.1203</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -741,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>46.7719</v>
+        <v>92.2684</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -749,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>47.0386</v>
+        <v>93.3301</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>46.7844</v>
+        <v>92.04559999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -765,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>47.5695</v>
+        <v>92.8916</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>48.0033</v>
+        <v>94.48909999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -781,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>48.7981</v>
+        <v>94.8998</v>
       </c>
     </row>
   </sheetData>
